--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/055d50aed75e1726/LifeKal/Tooling/Python/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lifekal\LifeKal.Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{7F9D40CB-2581-0349-9D64-FF1D2DA545C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B53F29A6-400B-7B42-9307-05A99928540C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062F2A5-45C1-41AE-BE32-21BF2002DE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1400" windowWidth="28800" windowHeight="15560" xr2:uid="{7A6404DA-B6F9-449F-981F-3CDD34C1959D}"/>
+    <workbookView xWindow="5115" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{7A6404DA-B6F9-449F-981F-3CDD34C1959D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -527,18 +527,18 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43831</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0.26666666700000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43831</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43831</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43831</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43831</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43831</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43831</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43831</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43831</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43831</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43831</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43831</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0.32876712299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43831</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0.61643835599999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43831</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>5.4794520999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43831</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>5.4794520999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43831</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43831</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0.61240310099999995</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43831</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.38759689899999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43831</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0.38759689899999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43831</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.358736059</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43831</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.23234200699999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43831</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.40892193300000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43831</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0.40892193300000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43831</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43831</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43831</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43831</v>
       </c>
